--- a/biology/Médecine/Gottfried_Reinhold_Treviranus/Gottfried_Reinhold_Treviranus.xlsx
+++ b/biology/Médecine/Gottfried_Reinhold_Treviranus/Gottfried_Reinhold_Treviranus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gottfried Reinhold Treviranus est un naturaliste allemand, né le 4 février 1776 à Brême et mort le 16 février 1837 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Joachim Johann Treviranus, son frère est le naturaliste Ludolph Christian Treviranus (1779-1864). Il étudie les mathématiques et la médecine à Göttingen de 1793 à 1796, année de l’obtention de son doctorat. Il est professeur de médecine et de mathématique au Lyceum de Brême en 1797. Il est, en parallèle, médecin de ville.
 Il est notamment l’auteur de :
